--- a/Data/Dialogs/dlgMotorcycleInsurance.xlsx
+++ b/Data/Dialogs/dlgMotorcycleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6925BEB0-ABB7-435D-8ACD-A9C9AFDE620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42820B-A835-4ED3-A810-92D6155A8424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Action</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>DefaultInsurance_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest_FillPageInsurantData</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest_FillPageProductData</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest_FillPageSendQuote</t>
   </si>
 </sst>
 </file>
@@ -181,15 +199,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>783074</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>138088</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1552694</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -212,7 +230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3108960"/>
+          <a:off x="38100" y="4069080"/>
           <a:ext cx="14285714" cy="7819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -522,21 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,6 +753,62 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Dialogs/dlgMotorcycleInsurance.xlsx
+++ b/Data/Dialogs/dlgMotorcycleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42820B-A835-4ED3-A810-92D6155A8424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE729B-4EAD-462B-A570-F2CB2095DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2520" yWindow="1236" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Action</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>104_MotorcycleInsurance_001_SmokeTest_FillPageSendQuote</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[1]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[2]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[3]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[4]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[5]</t>
   </si>
 </sst>
 </file>
@@ -543,7 +558,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +579,21 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
